--- a/nlouie_thsu8/Crimes_Distance_To_StreetLamp_Data_Visualization.xlsx
+++ b/nlouie_thsu8/Crimes_Distance_To_StreetLamp_Data_Visualization.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Transcend/course-2016-spr-proj-two/nlouie_thsu8/"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +66,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2171,14 +2177,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t> Distance</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> to Nearest Streetlamp (meters)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2267,6 +2273,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Numer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> of Crimes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2936,16 +3001,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148684</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3232,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B310"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5719,7 +5784,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>